--- a/hasil/2023_01_lipa_18.xlsx
+++ b/hasil/2023_01_lipa_18.xlsx
@@ -239,13 +239,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 05 Juli 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -264,7 +264,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <b val="0"/>
@@ -283,15 +285,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b val="1"/>
@@ -319,6 +312,15 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -362,9 +364,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
-      </top>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -387,23 +397,15 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
         <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      </top>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -412,108 +414,120 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -815,9 +829,9 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="85" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -844,1012 +858,1005 @@
     <col min="19" max="19" width="12.42578125" customWidth="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+    </row>
+    <row r="2" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+    </row>
+    <row r="3" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="5" spans="1:21" customHeight="1" ht="12">
-      <c r="S5" s="3" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+    </row>
+    <row r="5" spans="1:20" customHeight="1" ht="12">
+      <c r="S5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" customHeight="1" ht="12">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:20" customHeight="1" ht="12">
+      <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" customHeight="1" ht="12">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" customHeight="1" ht="12">
+      <c r="A7" s="24"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" customHeight="1" ht="12">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11" t="s">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" customHeight="1" ht="12">
+      <c r="A8" s="24"/>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" customHeight="1" ht="12">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="S8" s="28"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" customHeight="1" ht="12">
+      <c r="A9" s="24"/>
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" customHeight="1" ht="12">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="R9" s="24"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" customHeight="1" ht="12">
+      <c r="A10" s="24"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" customHeight="1" ht="12">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
+      <c r="R10" s="24"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" customHeight="1" ht="12">
+      <c r="A11" s="24"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" customHeight="1" ht="12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13" t="s">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" customHeight="1" ht="12">
+      <c r="A12" s="25"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" customHeight="1" ht="12">
-      <c r="A13" s="24">
+      <c r="L12" s="4"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" customHeight="1" ht="12">
+      <c r="A13" s="17">
         <v>1</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="17">
         <v>2</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="17">
         <v>3</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="17">
         <v>4</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="17">
         <v>5</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="17">
         <v>6</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="17">
         <v>7</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="17">
         <v>8</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="17">
         <v>9</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="17">
         <v>10</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="17">
         <v>11</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="17">
         <v>12</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="17">
         <v>13</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="17">
         <v>14</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-    </row>
-    <row r="15" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A15" s="27">
+    <row r="14" spans="1:20" customHeight="1" ht="16.5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:20" customHeight="1" ht="16.5">
+      <c r="A15" s="29">
         <v>1</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="30">
         <v>0</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="30">
         <v>590000</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="30">
         <v>0</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="30">
         <v>0</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="30">
         <v>0</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="30">
         <v>0</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="30">
         <v>0</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="30">
         <v>0</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="30">
         <v>0</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="30">
         <v>0</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="30">
         <v>0</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="30">
         <v>0</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="30">
         <v>0</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="30">
         <v>0</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="30">
         <v>0</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="30">
         <v>0</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="30">
         <v>0</v>
       </c>
-      <c r="S15" s="27" t="str">
+      <c r="S15" s="30" t="str">
         <f>sum(B15:R15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" customHeight="1" ht="16.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-    </row>
-    <row r="17" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-    </row>
-    <row r="18" spans="1:21" customHeight="1" ht="20">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="18" t="s">
+    <row r="16" spans="1:20" customHeight="1" ht="16.5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:20" customHeight="1" ht="20">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-    </row>
-    <row r="19" spans="1:21" customHeight="1" ht="20">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="18" t="s">
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:20" customHeight="1" ht="20">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-    </row>
-    <row r="20" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-    </row>
-    <row r="21" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-    </row>
-    <row r="22" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-    </row>
-    <row r="23" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-    </row>
-    <row r="24" spans="1:21" customHeight="1" ht="20">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18" t="s">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:20" customHeight="1" ht="20">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-    </row>
-    <row r="25" spans="1:21" customHeight="1" ht="20">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18" t="s">
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" customHeight="1" ht="20">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-    </row>
-    <row r="26" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-    </row>
-    <row r="27" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-    </row>
-    <row r="28" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-    </row>
-    <row r="29" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-    </row>
-    <row r="30" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-    </row>
-    <row r="31" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-    </row>
-    <row r="32" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-    </row>
-    <row r="33" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-    </row>
-    <row r="34" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-    </row>
-    <row r="35" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-    </row>
-    <row r="36" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-    </row>
-    <row r="37" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-    </row>
-    <row r="38" spans="1:21" customHeight="1" ht="15.75">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-    </row>
-    <row r="39" spans="1:21" customHeight="1" ht="15.75">
-      <c r="N39" s="22"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+    </row>
+    <row r="35" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+    </row>
+    <row r="36" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+    </row>
+    <row r="38" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+    </row>
+    <row r="39" spans="1:20" customHeight="1" ht="15.75">
+      <c r="N39" s="15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
@@ -1864,8 +1871,8 @@
     <mergeCell ref="A2:S2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="1.4566929133858" right="0.19685039370079" top="0.74803149606299" bottom="0.74803149606299" header="0" footer="0"/>
-  <pageSetup paperSize="5" orientation="landscape" scale="50" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.98425196850394" right="0.19685039370079" top="0.74803149606299" bottom="0.74803149606299" header="0" footer="0"/>
+  <pageSetup paperSize="5" orientation="landscape" scale="53" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_18.xlsx
+++ b/hasil/2023_01_lipa_18.xlsx
@@ -239,7 +239,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -267,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -321,6 +321,15 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
     </font>
   </fonts>
   <fills count="6">
@@ -522,11 +531,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="6" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>

--- a/hasil/2023_01_lipa_18.xlsx
+++ b/hasil/2023_01_lipa_18.xlsx
@@ -239,7 +239,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 06 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="30">
-        <v>0</v>
+        <v>163500</v>
       </c>
       <c r="C15" s="30">
         <v>590000</v>
@@ -1334,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="30">
-        <v>0</v>
+        <v>670000</v>
       </c>
       <c r="K15" s="30">
-        <v>0</v>
+        <v>690000</v>
       </c>
       <c r="L15" s="30">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="30">
-        <v>0</v>
+        <v>340000</v>
       </c>
       <c r="P15" s="30">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="30">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="S15" s="30" t="str">
         <f>sum(B15:R15)</f>
